--- a/data/11 Класс.xlsx
+++ b/data/11 Класс.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11760" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="11Т" sheetId="1" r:id="rId1"/>
-    <sheet name="11Е" sheetId="2" r:id="rId2"/>
-    <sheet name="11Э" sheetId="3" r:id="rId3"/>
-    <sheet name="11Г" sheetId="4" r:id="rId4"/>
+    <sheet name="Т" sheetId="1" r:id="rId1"/>
+    <sheet name="Е" sheetId="2" r:id="rId2"/>
+    <sheet name="Э" sheetId="3" r:id="rId3"/>
+    <sheet name="Г" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1176,8 +1176,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1448,7 +1448,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
